--- a/US/US ACM deaths by month ages 35-44.xlsx
+++ b/US/US ACM deaths by month ages 35-44.xlsx
@@ -8,18 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stk\Documents\GitHub\covid\US\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B28E5F18-229B-420E-9926-B78B3884A6A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9029293E-AFC6-4AF1-9BF9-F712F9F70145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="1680" windowWidth="15945" windowHeight="13710" activeTab="2" xr2:uid="{A747A6A0-1348-42BC-B8C6-D16749752B6F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{A747A6A0-1348-42BC-B8C6-D16749752B6F}"/>
   </bookViews>
   <sheets>
     <sheet name="35-55 covid vs. acm" sheetId="1" r:id="rId1"/>
-    <sheet name="all ages by month" sheetId="2" r:id="rId2"/>
-    <sheet name="Notes" sheetId="3" r:id="rId3"/>
+    <sheet name="ACM all ages ICD A-R " sheetId="4" r:id="rId2"/>
+    <sheet name="COVID all ages" sheetId="5" r:id="rId3"/>
+    <sheet name="ACM all ages" sheetId="2" r:id="rId4"/>
+    <sheet name="65-74 COVID deaths" sheetId="6" r:id="rId5"/>
+    <sheet name="65-74 acm" sheetId="7" r:id="rId6"/>
+    <sheet name="Sheet5" sheetId="8" r:id="rId7"/>
+    <sheet name="Notes" sheetId="3" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="caveats" localSheetId="1">'all ages by month'!$A$85</definedName>
-    <definedName name="Notes" localSheetId="1">'all ages by month'!$A$84</definedName>
+    <definedName name="caveats" localSheetId="3">'ACM all ages'!$A$85</definedName>
+    <definedName name="Notes" localSheetId="3">'ACM all ages'!$A$84</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="103">
   <si>
     <t>Mar., 2020</t>
   </si>
@@ -358,6 +363,21 @@
   <si>
     <t>*** covid deaths come in waves so it should impact all age groups the same (curve shaps should be similar)</t>
   </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>deaths</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>covid deaths only</t>
+  </si>
+  <si>
+    <t>covid deaths</t>
+  </si>
 </sst>
 </file>
 
@@ -439,7 +459,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -618,27 +638,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF555555"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF6EA1E5"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF555555"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF6EA1E5"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -682,12 +687,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -737,67 +736,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>ages 35-44</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> U07.1 COVID deaths</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -1054,6 +993,20 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:dropLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="35000"/>
+                  <a:lumOff val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:dropLines>
         <c:smooth val="0"/>
         <c:axId val="1909475856"/>
         <c:axId val="1909473456"/>
@@ -1065,6 +1018,36 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1130,8 +1113,38 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -1173,6 +1186,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1224,62 +1268,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>age 35-55 deaths per month</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -1692,6 +1681,20 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:dropLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="35000"/>
+                  <a:lumOff val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:dropLines>
         <c:smooth val="0"/>
         <c:axId val="107942480"/>
         <c:axId val="107942960"/>
@@ -1703,6 +1706,36 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1768,6 +1801,716 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="107942480"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>US deaths all ages ICD A-R codes ONLY</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ACM all ages ICD A-R '!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>deaths</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'ACM all ages ICD A-R '!$A$2:$A$63</c:f>
+              <c:strCache>
+                <c:ptCount val="60"/>
+                <c:pt idx="0">
+                  <c:v>Jan., 2018</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Feb., 2018</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mar., 2018</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Apr., 2018</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May, 2018</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jun., 2018</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Jul., 2018</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Aug., 2018</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sep., 2018</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Oct., 2018</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Nov., 2018</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Dec., 2018</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Jan., 2019</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Feb., 2019</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Mar., 2019</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Apr., 2019</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>May, 2019</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Jun., 2019</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Jul., 2019</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Aug., 2019</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Sep., 2019</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Oct., 2019</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Nov., 2019</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Dec., 2019</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Jan., 2020</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Feb., 2020</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Mar., 2020</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Apr., 2020</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>May, 2020</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Jun., 2020</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Jul., 2020</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>Aug., 2020</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>Sep., 2020</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>Oct., 2020</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>Nov., 2020</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>Dec., 2020</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>Jan., 2021</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>Feb., 2021</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>Mar., 2021</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>Apr., 2021</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>May, 2021</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>Jun., 2021</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>Jul., 2021</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>Aug., 2021</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>Sep., 2021</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>Oct., 2021</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>Nov., 2021</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>Dec., 2021</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>Jan., 2022</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>Feb., 2022</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>Mar., 2022</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>Apr., 2022</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>May, 2022</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>Jun., 2022</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>Jul., 2022</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>Aug., 2022</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>Sep., 2022</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>Oct., 2022</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>Nov., 2022</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>Dec., 2022</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ACM all ages ICD A-R '!$B$2:$B$63</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="62"/>
+                <c:pt idx="0">
+                  <c:v>265418</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>218466</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>228464</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>213483</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>208108</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>198902</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>203310</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>203330</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>198209</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>213240</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>213904</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>229184</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>237219</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>214074</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>234074</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>215336</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>215726</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>204218</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>207062</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>205220</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>201663</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>216275</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>218156</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>234438</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>242413</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>223916</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>240445</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>238530</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>220035</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>209399</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>223958</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>223874</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>215817</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>227125</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>230610</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>252981</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>251219</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>216563</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>225492</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>214941</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>218553</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>211437</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>220137</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>230429</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>226105</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>234249</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>234184</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>251858</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>270620</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>225277</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>231438</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>217984</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>223565</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>215734</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>223584</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>222877</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>217945</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>232483</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>236415</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>263845</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2D86-4ED3-A382-CC0627B053AD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1963072096"/>
+        <c:axId val="1963072576"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1963072096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1963072576"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1963072576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1799,7 +2542,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="107942480"/>
+        <c:crossAx val="1963072096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1848,7 +2591,556 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'COVID all ages'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>deaths</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'COVID all ages'!$A$2:$A$36</c:f>
+              <c:strCache>
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
+                  <c:v>Feb., 2020</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mar., 2020</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Apr., 2020</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>May, 2020</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Jun., 2020</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jul., 2020</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Aug., 2020</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Sep., 2020</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Oct., 2020</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Nov., 2020</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Dec., 2020</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Jan., 2021</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Feb., 2021</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Mar., 2021</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Apr., 2021</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>May, 2021</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Jun., 2021</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Jul., 2021</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Aug., 2021</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Sep., 2021</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Oct., 2021</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Nov., 2021</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Dec., 2021</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Jan., 2022</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Feb., 2022</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Mar., 2022</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Apr., 2022</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>May, 2022</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Jun., 2022</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Jul., 2022</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Aug., 2022</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>Sep., 2022</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>Oct., 2022</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>Nov., 2022</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>Dec., 2022</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'COVID all ages'!$B$2:$B$36</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="35"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6750</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>61824</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35186</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15767</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28174</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26940</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16806</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>22030</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>47938</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>89397</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>96235</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42761</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>19593</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15967</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>12690</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6528</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9698</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45352</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>59084</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>38681</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>28950</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>41354</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>72466</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>40960</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>10969</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3661</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4809</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6222</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8921</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>9338</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7033</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6074</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6370</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>9729</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7527-4E2D-B0F0-83396825F05E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:dropLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="35000"/>
+                  <a:lumOff val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:dropLines>
+        <c:smooth val="0"/>
+        <c:axId val="2077315984"/>
+        <c:axId val="2077314544"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2077315984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2077314544"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2077314544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2077315984"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1945,7 +3237,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'all ages by month'!$A$1:$A$60</c:f>
+              <c:f>'ACM all ages'!$A$1:$A$60</c:f>
               <c:strCache>
                 <c:ptCount val="60"/>
                 <c:pt idx="0">
@@ -2133,7 +3425,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'all ages by month'!$B$1:$B$60</c:f>
+              <c:f>'ACM all ages'!$B$1:$B$60</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="60"/>
@@ -2596,6 +3888,1123 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>age 65-74 covid deaths</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'65-74 COVID deaths'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>covid deaths</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'65-74 COVID deaths'!$A$2:$A$36</c:f>
+              <c:strCache>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>Mar., 2020</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Apr., 2020</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>May, 2020</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Jun., 2020</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Jul., 2020</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Aug., 2020</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sep., 2020</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Oct., 2020</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Nov., 2020</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Dec., 2020</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Jan., 2021</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Feb., 2021</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Mar., 2021</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Apr., 2021</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>May, 2021</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Jun., 2021</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Jul., 2021</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Aug., 2021</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Sep., 2021</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Oct., 2021</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Nov., 2021</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Dec., 2021</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Jan., 2022</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Feb., 2022</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Mar., 2022</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Apr., 2022</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>May, 2022</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Jun., 2022</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Jul., 2022</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Aug., 2022</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Sep., 2022</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>Oct., 2022</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>Nov., 2022</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>Dec., 2022</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'65-74 COVID deaths'!$B$2:$B$36</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
+                  <c:v>1528</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13144</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7252</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3385</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6548</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6374</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3956</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4861</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10090</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19136</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22386</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10967</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5331</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4095</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3359</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1682</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2246</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10710</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>14403</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9669</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7195</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>10673</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>17205</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>10454</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2901</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="General">
+                  <c:v>787</c:v>
+                </c:pt>
+                <c:pt idx="26" formatCode="General">
+                  <c:v>906</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1037</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1608</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1779</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1359</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1085</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1164</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1777</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4B18-411E-84E6-202E07215C8F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="679248688"/>
+        <c:axId val="679251088"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="679248688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="679251088"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="679251088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="679248688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'65-74 acm'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>deaths</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'65-74 acm'!$A$2:$A$62</c:f>
+              <c:strCache>
+                <c:ptCount val="60"/>
+                <c:pt idx="0">
+                  <c:v>Jan., 2018</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Feb., 2018</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mar., 2018</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Apr., 2018</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May, 2018</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jun., 2018</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Jul., 2018</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Aug., 2018</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sep., 2018</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Oct., 2018</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Nov., 2018</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Dec., 2018</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Jan., 2019</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Feb., 2019</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Mar., 2019</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Apr., 2019</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>May, 2019</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Jun., 2019</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Jul., 2019</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Aug., 2019</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Sep., 2019</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Oct., 2019</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Nov., 2019</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Dec., 2019</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Jan., 2020</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Feb., 2020</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Mar., 2020</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Apr., 2020</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>May, 2020</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Jun., 2020</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Jul., 2020</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>Aug., 2020</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>Sep., 2020</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>Oct., 2020</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>Nov., 2020</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>Dec., 2020</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>Jan., 2021</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>Feb., 2021</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>Mar., 2021</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>Apr., 2021</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>May, 2021</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>Jun., 2021</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>Jul., 2021</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>Aug., 2021</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>Sep., 2021</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>Oct., 2021</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>Nov., 2021</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>Dec., 2021</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>Jan., 2022</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>Feb., 2022</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>Mar., 2022</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>Apr., 2022</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>May, 2022</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>Jun., 2022</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>Jul., 2022</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>Aug., 2022</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>Sep., 2022</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>Oct., 2022</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>Nov., 2022</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>Dec., 2022</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'65-74 acm'!$B$2:$B$62</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="61"/>
+                <c:pt idx="0">
+                  <c:v>53303</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44860</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>46979</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43915</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42542</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43320</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43430</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42471</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45186</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45019</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>47953</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>49753</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45342</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>49555</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45658</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>46127</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44014</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44675</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44633</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43254</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>46349</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>46827</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>49372</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>52395</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>48090</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>53191</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>63352</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>54707</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>49532</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>56096</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>55892</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>51588</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>54853</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>60707</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>74104</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>77618</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>59788</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>56164</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>53477</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>53544</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>50402</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>53003</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>63676</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>66273</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>62954</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>59881</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>67486</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>77257</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>60829</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>55076</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>49924</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>51379</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>49887</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>52475</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>52631</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>50845</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>53526</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>54218</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60534</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4D59-4AFB-A6E3-B604BB552223}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="834369024"/>
+        <c:axId val="834369504"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="834369024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="834369504"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="834369504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="834369024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2716,6 +5125,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -4264,6 +6833,2070 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -4274,8 +8907,8 @@
       <xdr:rowOff>361950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>190499</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>323850</xdr:rowOff>
     </xdr:to>
@@ -4310,8 +8943,8 @@
       <xdr:rowOff>47624</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>209549</xdr:rowOff>
     </xdr:to>
@@ -4347,16 +8980,98 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>328612</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>104776</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>428625</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4577CC99-2655-A606-8B71-49D75C9683D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C3EE32B-680C-D16B-5908-DB8F177B19F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>585787</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>285750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>361951</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4364,6 +9079,88 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F29840D6-60DC-92C5-7410-B3AA4C838638}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>323849</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>100011</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>523874</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>200024</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58A8E99E-327F-1EA5-DBD1-E3E4CCEB3FF4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>90487</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E3028DA-B676-7BB9-A32A-8C36CB61CD2A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4707,7 +9504,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6C26C3A-BFD4-4E02-8699-A47546FA52C0}">
   <dimension ref="A1:D97"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
@@ -6039,1203 +10836,1524 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9E194F3-688D-4DEA-9218-73E6316FB730}">
-  <dimension ref="A1:D88"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{972E4F43-EC2F-4CC2-A64A-59466198871C}">
+  <dimension ref="A1:B62"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection sqref="A1:B60"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="39.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="2">
+        <v>265418</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="2">
+        <v>218466</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="2">
+        <v>228464</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="2">
+        <v>213483</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="2">
+        <v>208108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="2">
+        <v>198902</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="2">
+        <v>203310</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="2">
+        <v>203330</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="2">
+        <v>198209</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="2">
+        <v>213240</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="2">
+        <v>213904</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="2">
+        <v>229184</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="2">
+        <v>237219</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="2">
+        <v>214074</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="2">
+        <v>234074</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="2">
+        <v>215336</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="2">
+        <v>215726</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="2">
+        <v>204218</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="2">
+        <v>207062</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="2">
+        <v>205220</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" s="2">
+        <v>201663</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" s="2">
+        <v>216275</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" s="2">
+        <v>218156</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" s="2">
+        <v>234438</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" s="2">
+        <v>242413</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" s="2">
+        <v>223916</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="2">
+        <v>240445</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" s="2">
+        <v>238530</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" s="2">
+        <v>220035</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" s="2">
+        <v>209399</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" s="2">
+        <v>223958</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" s="2">
+        <v>223874</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" s="2">
+        <v>215817</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" s="2">
+        <v>227125</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" s="2">
+        <v>230610</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" s="2">
+        <v>252981</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38" s="2">
+        <v>251219</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39" s="2">
+        <v>216563</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B40" s="2">
+        <v>225492</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B41" s="2">
+        <v>214941</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B42" s="2">
+        <v>218553</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B43" s="2">
+        <v>211437</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B44" s="2">
+        <v>220137</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B45" s="2">
+        <v>230429</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B46" s="2">
+        <v>226105</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B47" s="2">
+        <v>234249</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B48" s="2">
+        <v>234184</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B49" s="2">
+        <v>251858</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B50" s="2">
+        <v>270620</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B51" s="2">
+        <v>225277</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B52" s="2">
+        <v>231438</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B53" s="2">
+        <v>217984</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B54" s="2">
+        <v>223565</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B55" s="2">
+        <v>215734</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B56" s="2">
+        <v>223584</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B57" s="2">
+        <v>222877</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B58" s="2">
+        <v>217945</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B59" s="2">
+        <v>232483</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B60" s="2">
+        <v>236415</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B61" s="16">
+        <v>263845</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0147E5D2-12EF-4B5B-9630-9648F062CA10}">
+  <dimension ref="A1:D37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="27" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="14">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2">
+        <v>6750</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
+        <v>61824</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2">
+        <v>35186</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2">
+        <v>15767</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2">
+        <v>28174</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2">
+        <v>26940</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2">
+        <v>16806</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2">
+        <v>22030</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2">
+        <v>47938</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2">
+        <v>89397</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2">
+        <v>96235</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2">
+        <v>42761</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2">
+        <v>19593</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2">
+        <v>15967</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2">
+        <v>12690</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2">
+        <v>6528</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2">
+        <v>9698</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2">
+        <v>45352</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="2">
+        <v>59084</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="2">
+        <v>38681</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="2">
+        <v>28950</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="2">
+        <v>41354</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="2">
+        <v>72466</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="2">
+        <v>40960</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="2">
+        <v>10969</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="2">
+        <v>3661</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="2">
+        <v>4809</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="2">
+        <v>6222</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="2">
+        <v>8921</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="2">
+        <v>9338</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="2">
+        <v>7033</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" s="2">
+        <v>6074</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" s="2">
+        <v>6370</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" s="16">
+        <v>9729</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <f>SUM(B2:B36)</f>
+        <v>954273</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9E194F3-688D-4DEA-9218-73E6316FB730}">
+  <dimension ref="A1:B88"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:D1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="27" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>35</v>
       </c>
       <c r="B1" s="13">
         <v>286744</v>
       </c>
-      <c r="C1" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>36</v>
       </c>
       <c r="B2" s="2">
         <v>236998</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B3" s="2">
         <v>248805</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>38</v>
       </c>
       <c r="B4" s="2">
         <v>233164</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>39</v>
       </c>
       <c r="B5" s="2">
         <v>228772</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>40</v>
       </c>
       <c r="B6" s="2">
         <v>220103</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>41</v>
       </c>
       <c r="B7" s="2">
         <v>225111</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>42</v>
       </c>
       <c r="B8" s="2">
         <v>224254</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B9" s="2">
         <v>218696</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>44</v>
       </c>
       <c r="B10" s="2">
         <v>233903</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>45</v>
       </c>
       <c r="B11" s="2">
         <v>233375</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>46</v>
       </c>
       <c r="B12" s="2">
         <v>249280</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>47</v>
       </c>
       <c r="B13" s="2">
         <v>257649</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>48</v>
       </c>
       <c r="B14" s="2">
         <v>232821</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>49</v>
       </c>
       <c r="B15" s="2">
         <v>254929</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>50</v>
       </c>
       <c r="B16" s="2">
         <v>235254</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B17" s="2">
         <v>236893</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>52</v>
       </c>
       <c r="B18" s="2">
         <v>225422</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>53</v>
       </c>
       <c r="B19" s="2">
         <v>229211</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>54</v>
       </c>
       <c r="B20" s="2">
         <v>227280</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>55</v>
       </c>
       <c r="B21" s="2">
         <v>222715</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>56</v>
       </c>
       <c r="B22" s="2">
         <v>237661</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>57</v>
       </c>
       <c r="B23" s="2">
         <v>239028</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>58</v>
       </c>
       <c r="B24" s="2">
         <v>255975</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>59</v>
       </c>
       <c r="B25" s="2">
         <v>264062</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>60</v>
       </c>
       <c r="B26" s="2">
         <v>244431</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B27" s="2">
         <v>269239</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B28" s="2">
         <v>321879</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B29" s="2">
         <v>280152</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B30" s="2">
         <v>249993</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B31" s="2">
         <v>278409</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B32" s="2">
         <v>276731</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B33" s="2">
         <v>256732</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B34" s="2">
         <v>273443</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B35" s="2">
         <v>302090</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B36" s="2">
         <v>366568</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B37" s="2">
         <v>372916</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B38" s="2">
         <v>282015</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B39" s="2">
         <v>270527</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B40" s="2">
         <v>256523</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B41" s="2">
         <v>257798</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B42" s="2">
         <v>244671</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
         <v>17</v>
       </c>
       <c r="B43" s="2">
         <v>257328</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B44" s="2">
         <v>303261</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B45" s="2">
         <v>311830</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
         <v>20</v>
       </c>
       <c r="B46" s="2">
         <v>299591</v>
       </c>
-      <c r="C46" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B47" s="2">
         <v>288483</v>
       </c>
-      <c r="C47" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B48" s="2">
         <v>319288</v>
       </c>
-      <c r="C48" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B49" s="2">
         <v>369459</v>
       </c>
-      <c r="C49" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D49" s="7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B50" s="2">
         <v>290309</v>
       </c>
-      <c r="C50" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D50" s="7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
         <v>25</v>
       </c>
       <c r="B51" s="2">
         <v>268246</v>
       </c>
-      <c r="C51" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
         <v>26</v>
       </c>
       <c r="B52" s="2">
         <v>246083</v>
       </c>
-      <c r="C52" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D52" s="7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B53" s="2">
         <v>254396</v>
       </c>
-      <c r="C53" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D53" s="7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
         <v>28</v>
       </c>
       <c r="B54" s="2">
         <v>248080</v>
       </c>
-      <c r="C54" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D54" s="7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B55" s="2">
         <v>260129</v>
       </c>
-      <c r="C55" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D55" s="7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
         <v>30</v>
       </c>
       <c r="B56" s="2">
         <v>258926</v>
       </c>
-      <c r="C56" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D56" s="7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
         <v>31</v>
       </c>
       <c r="B57" s="2">
         <v>250891</v>
       </c>
-      <c r="C57" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D57" s="7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B58" s="2">
         <v>264956</v>
       </c>
-      <c r="C58" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D58" s="7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
         <v>33</v>
       </c>
       <c r="B59" s="2">
         <v>268002</v>
       </c>
-      <c r="C59" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D59" s="7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
         <v>34</v>
       </c>
       <c r="B60" s="2">
         <v>300380</v>
       </c>
-      <c r="C60" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D60" s="7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="1:2" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
         <v>62</v>
       </c>
       <c r="B61" s="2">
         <v>288757</v>
       </c>
-      <c r="C61" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D61" s="7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="1:2" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
         <v>63</v>
       </c>
       <c r="B62" s="2">
         <v>248665</v>
       </c>
-      <c r="C62" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D62" s="7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="1:2" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
         <v>64</v>
       </c>
       <c r="B63" s="2">
         <v>268769</v>
       </c>
-      <c r="C63" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D63" s="7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="1:2" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
         <v>65</v>
       </c>
       <c r="B64" s="2">
         <v>251834</v>
       </c>
-      <c r="C64" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D64" s="7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="1:2" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="6" t="s">
         <v>66</v>
       </c>
       <c r="B65" s="2">
         <v>252167</v>
       </c>
-      <c r="C65" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D65" s="7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="1:2" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
         <v>67</v>
       </c>
       <c r="B66" s="2">
         <v>240809</v>
       </c>
-      <c r="C66" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D66" s="7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="1:2" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
         <v>68</v>
       </c>
       <c r="B67" s="2">
         <v>246581</v>
       </c>
-      <c r="C67" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D67" s="7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="1:2" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B68" s="2">
         <v>249931</v>
       </c>
-      <c r="C68" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D68" s="7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="1:2" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
         <v>70</v>
       </c>
       <c r="B69" s="2">
         <v>244478</v>
       </c>
-      <c r="C69" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D69" s="7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="1:2" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="s">
         <v>71</v>
       </c>
       <c r="B70" s="2">
         <v>258159</v>
       </c>
-      <c r="C70" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D70" s="7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="71" spans="1:2" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
         <v>72</v>
       </c>
       <c r="B71" s="2">
         <v>257440</v>
       </c>
-      <c r="C71" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D71" s="7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="72" spans="1:2" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
         <v>73</v>
       </c>
       <c r="B72" s="2">
         <v>283374</v>
       </c>
-      <c r="C72" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D72" s="7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="73" spans="1:2" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="6" t="s">
         <v>74</v>
       </c>
       <c r="B73" s="2">
         <v>294313</v>
       </c>
-      <c r="C73" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D73" s="7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="74" spans="1:2" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="6" t="s">
         <v>75</v>
       </c>
       <c r="B74" s="2">
         <v>254857</v>
       </c>
-      <c r="C74" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D74" s="7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="75" spans="1:2" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="6" t="s">
         <v>76</v>
       </c>
       <c r="B75" s="2">
         <v>262795</v>
       </c>
-      <c r="C75" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D75" s="7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="76" spans="1:2" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="6" t="s">
         <v>77</v>
       </c>
       <c r="B76" s="2">
         <v>248505</v>
       </c>
-      <c r="C76" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D76" s="7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="77" spans="1:2" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="s">
         <v>78</v>
       </c>
       <c r="B77" s="2">
         <v>249261</v>
       </c>
-      <c r="C77" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D77" s="7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="78" spans="1:2" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
         <v>79</v>
       </c>
       <c r="B78" s="2">
         <v>239908</v>
       </c>
-      <c r="C78" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D78" s="7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="79" spans="1:2" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
         <v>80</v>
       </c>
       <c r="B79" s="2">
         <v>240831</v>
       </c>
-      <c r="C79" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D79" s="7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="80" spans="1:2" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
         <v>81</v>
       </c>
       <c r="B80" s="2">
         <v>245420</v>
       </c>
-      <c r="C80" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D80" s="7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="81" spans="1:2" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="s">
         <v>70</v>
       </c>
       <c r="B81" s="2">
         <v>210908</v>
       </c>
-      <c r="C81" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D81" s="7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="82" spans="1:2" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="6" t="s">
         <v>82</v>
       </c>
       <c r="B82" s="2">
         <v>21453</v>
       </c>
-      <c r="C82" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D82" s="7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="83" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="17" t="s">
         <v>83</v>
       </c>
       <c r="B83" s="18">
         <v>21181075</v>
       </c>
-      <c r="C83" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="D83" s="20" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" ht="58.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="21" t="s">
+    </row>
+    <row r="84" spans="1:2" ht="58.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="19" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="24" t="s">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="B85" s="24"/>
-    </row>
-    <row r="86" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A86" s="25" t="s">
+      <c r="B85" s="22"/>
+    </row>
+    <row r="86" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A86" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="B86" s="23" t="s">
+      <c r="B86" s="21" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="25"/>
-      <c r="B87" s="22"/>
-    </row>
-    <row r="88" spans="1:4" ht="165.75" x14ac:dyDescent="0.25">
-      <c r="A88" s="25"/>
-      <c r="B88" s="22" t="s">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="23"/>
+      <c r="B87" s="20"/>
+    </row>
+    <row r="88" spans="1:2" ht="165.75" x14ac:dyDescent="0.25">
+      <c r="A88" s="23"/>
+      <c r="B88" s="20" t="s">
         <v>88</v>
       </c>
     </row>
@@ -7252,11 +12370,825 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B101BBD1-9B52-40A7-91F1-F3A17FFDA08B}">
+  <dimension ref="A1:B36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>13144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>7252</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>3385</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>6548</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>6374</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2">
+        <v>3956</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
+        <v>4861</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2">
+        <v>10090</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2">
+        <v>19136</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2">
+        <v>22386</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2">
+        <v>10967</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2">
+        <v>5331</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2">
+        <v>4095</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2">
+        <v>3359</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2">
+        <v>10710</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2">
+        <v>14403</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2">
+        <v>9669</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2">
+        <v>7195</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2">
+        <v>10673</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2">
+        <v>17205</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2">
+        <v>10454</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2">
+        <v>2901</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2">
+        <v>1779</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" s="2">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="2">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="16">
+        <v>1777</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46ABB939-002E-4706-B4BF-54E1183160B2}">
+  <dimension ref="A1:B62"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="27" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="13">
+        <v>53303</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="2">
+        <v>44860</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="2">
+        <v>46979</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="2">
+        <v>44800</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="2">
+        <v>43915</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="2">
+        <v>42542</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="2">
+        <v>43320</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="2">
+        <v>43430</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="2">
+        <v>42471</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="2">
+        <v>45186</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="2">
+        <v>45019</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="2">
+        <v>47953</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="2">
+        <v>49753</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="2">
+        <v>45342</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="2">
+        <v>49555</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="2">
+        <v>45658</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="2">
+        <v>46127</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="2">
+        <v>44014</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="2">
+        <v>44675</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="2">
+        <v>44633</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" s="2">
+        <v>43254</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" s="2">
+        <v>46349</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" s="2">
+        <v>46827</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" s="2">
+        <v>49372</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" s="2">
+        <v>52395</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" s="2">
+        <v>48090</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="2">
+        <v>53191</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" s="2">
+        <v>63352</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" s="2">
+        <v>54707</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" s="2">
+        <v>49532</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" s="2">
+        <v>56096</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" s="2">
+        <v>55892</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" s="2">
+        <v>51588</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" s="2">
+        <v>54853</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" s="2">
+        <v>60707</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" s="2">
+        <v>74104</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38" s="2">
+        <v>77618</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39" s="2">
+        <v>59788</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B40" s="2">
+        <v>56164</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B41" s="2">
+        <v>53477</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B42" s="2">
+        <v>53544</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B43" s="2">
+        <v>50402</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B44" s="2">
+        <v>53003</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B45" s="2">
+        <v>63676</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B46" s="2">
+        <v>66273</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B47" s="2">
+        <v>62954</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B48" s="2">
+        <v>59881</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B49" s="2">
+        <v>67486</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B50" s="2">
+        <v>77257</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B51" s="2">
+        <v>60829</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B52" s="2">
+        <v>55076</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B53" s="2">
+        <v>49924</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B54" s="2">
+        <v>51379</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B55" s="2">
+        <v>49887</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B56" s="2">
+        <v>52475</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B57" s="2">
+        <v>52631</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B58" s="2">
+        <v>50845</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B59" s="2">
+        <v>53526</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B60" s="2">
+        <v>54218</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B61" s="16">
+        <v>60534</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98D38AFA-CB90-4D78-8CBF-190701372B1A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1CBB393-4D60-44A1-A3D2-84384BCA7B60}">
   <dimension ref="A2:A12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>

--- a/US/US ACM deaths by month ages 35-44.xlsx
+++ b/US/US ACM deaths by month ages 35-44.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stk\Documents\GitHub\covid\US\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9029293E-AFC6-4AF1-9BF9-F712F9F70145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E9F2CFA-C10B-451A-9F27-8C45DB531935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{A747A6A0-1348-42BC-B8C6-D16749752B6F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="3" xr2:uid="{A747A6A0-1348-42BC-B8C6-D16749752B6F}"/>
   </bookViews>
   <sheets>
     <sheet name="35-55 covid vs. acm" sheetId="1" r:id="rId1"/>
@@ -2605,7 +2605,62 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>COVID deaths, all ages, from CDC Underlying cause of death</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -3000,6 +3055,31 @@
           </c:spPr>
         </c:majorGridlines>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Deaths</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -11345,8 +11425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0147E5D2-12EF-4B5B-9630-9648F062CA10}">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
